--- a/Project Tables.xlsx
+++ b/Project Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/beb650ba858967e9/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3710089-0625-4CE7-84EB-D53F9F51348D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{E3710089-0625-4CE7-84EB-D53F9F51348D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74F5251D-D7AF-433C-9E53-C17654B2C9A7}"/>
   <bookViews>
-    <workbookView xWindow="1164" yWindow="0" windowWidth="15576" windowHeight="11112" xr2:uid="{C40A13FC-77CD-4154-8C71-D97320883B10}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C40A13FC-77CD-4154-8C71-D97320883B10}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="67">
   <si>
     <t>Customer_ID</t>
   </si>
@@ -210,6 +210,33 @@
   </si>
   <si>
     <t>PK FK</t>
+  </si>
+  <si>
+    <t>Employee_Password</t>
+  </si>
+  <si>
+    <t>Customer Table</t>
+  </si>
+  <si>
+    <t>Preferred_Status_ID</t>
+  </si>
+  <si>
+    <t>Preferred Status Table</t>
+  </si>
+  <si>
+    <t>Code For Regular</t>
+  </si>
+  <si>
+    <t>Preferred_Description</t>
+  </si>
+  <si>
+    <t>Total_Price</t>
+  </si>
+  <si>
+    <t>Deposit</t>
+  </si>
+  <si>
+    <t>50% of Total_Price</t>
   </si>
 </sst>
 </file>
@@ -233,12 +260,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -253,9 +286,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C804E618-E8EA-408E-9DFE-8224DD404835}">
-  <dimension ref="B4:F58"/>
+  <dimension ref="B4:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D63" sqref="D62:D63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,142 +654,83 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
       </c>
       <c r="E17" t="s">
         <v>50</v>
@@ -765,7 +741,13 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
       </c>
       <c r="E18" t="s">
         <v>50</v>
@@ -774,20 +756,31 @@
         <v>55</v>
       </c>
     </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>14</v>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="E21" t="s">
         <v>50</v>
@@ -798,7 +791,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E22" t="s">
         <v>50</v>
@@ -807,20 +800,48 @@
         <v>55</v>
       </c>
     </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
-        <v>17</v>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
         <v>50</v>
@@ -831,13 +852,7 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="E27" t="s">
         <v>50</v>
@@ -848,112 +863,106 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" t="s">
         <v>48</v>
       </c>
-      <c r="E28" t="s">
-        <v>50</v>
-      </c>
-      <c r="F28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" t="s">
-        <v>50</v>
-      </c>
-      <c r="F29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" t="s">
-        <v>50</v>
-      </c>
-      <c r="F31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" t="s">
-        <v>50</v>
-      </c>
-      <c r="F36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" t="s">
-        <v>50</v>
-      </c>
-      <c r="F37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="1" t="s">
-        <v>23</v>
+      <c r="E39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E40" t="s">
         <v>50</v>
@@ -964,10 +973,10 @@
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" t="s">
-        <v>48</v>
+        <v>33</v>
+      </c>
+      <c r="C41" t="s">
+        <v>45</v>
       </c>
       <c r="E41" t="s">
         <v>50</v>
@@ -978,173 +987,303 @@
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" t="s">
+        <v>50</v>
+      </c>
+      <c r="F44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" t="s">
+        <v>47</v>
+      </c>
+      <c r="E54" t="s">
+        <v>50</v>
+      </c>
+      <c r="F54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" t="s">
+        <v>50</v>
+      </c>
+      <c r="F55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" t="s">
+        <v>47</v>
+      </c>
+      <c r="E59" t="s">
+        <v>50</v>
+      </c>
+      <c r="F59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" t="s">
+        <v>48</v>
+      </c>
+      <c r="E60" t="s">
+        <v>50</v>
+      </c>
+      <c r="F60" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
         <v>0</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D61" t="s">
         <v>48</v>
       </c>
-      <c r="E42" t="s">
-        <v>50</v>
-      </c>
-      <c r="F42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="1" t="s">
+      <c r="E61" t="s">
+        <v>50</v>
+      </c>
+      <c r="F61" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B63" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
         <v>35</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C64" t="s">
         <v>38</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D64" t="s">
         <v>47</v>
       </c>
-      <c r="E45" t="s">
-        <v>50</v>
-      </c>
-      <c r="F45" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
+      <c r="E64" t="s">
+        <v>50</v>
+      </c>
+      <c r="F64" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
         <v>18</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D65" t="s">
         <v>48</v>
       </c>
-      <c r="E46" t="s">
-        <v>50</v>
-      </c>
-      <c r="F46" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
+      <c r="E65" t="s">
+        <v>50</v>
+      </c>
+      <c r="F65" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
         <v>26</v>
       </c>
-      <c r="C47">
+      <c r="C66">
         <v>1</v>
       </c>
-      <c r="E47" t="s">
-        <v>50</v>
-      </c>
-      <c r="F47" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
+      <c r="E66" t="s">
+        <v>50</v>
+      </c>
+      <c r="F66" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
         <v>27</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C67" t="s">
         <v>44</v>
       </c>
-      <c r="E48" t="s">
-        <v>50</v>
-      </c>
-      <c r="F48" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
+      <c r="E67" t="s">
+        <v>50</v>
+      </c>
+      <c r="F67" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
         <v>28</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C68" t="s">
         <v>43</v>
       </c>
-      <c r="E49" t="s">
-        <v>50</v>
-      </c>
-      <c r="F49" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
+      <c r="E68" t="s">
+        <v>50</v>
+      </c>
+      <c r="F68" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
         <v>56</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E69" t="s">
         <v>53</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F69" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
         <v>29</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E70" t="s">
         <v>53</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F70" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
         <v>30</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E71" t="s">
         <v>53</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F71" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="1" t="s">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B73" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
         <v>49</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C74" t="s">
         <v>38</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D74" t="s">
         <v>47</v>
       </c>
-      <c r="E56" t="s">
-        <v>50</v>
-      </c>
-      <c r="F56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
+      <c r="E74" t="s">
+        <v>50</v>
+      </c>
+      <c r="F74" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
         <v>35</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D75" t="s">
         <v>57</v>
       </c>
-      <c r="E57" t="s">
-        <v>50</v>
-      </c>
-      <c r="F57" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
+      <c r="E75" t="s">
+        <v>50</v>
+      </c>
+      <c r="F75" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
         <v>34</v>
       </c>
-      <c r="E58" t="s">
-        <v>50</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="E76" t="s">
+        <v>50</v>
+      </c>
+      <c r="F76" t="s">
         <v>55</v>
       </c>
     </row>

--- a/Project Tables.xlsx
+++ b/Project Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/beb650ba858967e9/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{E3710089-0625-4CE7-84EB-D53F9F51348D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74F5251D-D7AF-433C-9E53-C17654B2C9A7}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="8_{E3710089-0625-4CE7-84EB-D53F9F51348D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9D7F859-8187-488E-88AB-1C2640258EF9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C40A13FC-77CD-4154-8C71-D97320883B10}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="71">
   <si>
     <t>Customer_ID</t>
   </si>
@@ -237,6 +237,18 @@
   </si>
   <si>
     <t>50% of Total_Price</t>
+  </si>
+  <si>
+    <t>Employee_Roll_ID</t>
+  </si>
+  <si>
+    <t>Employee Role Table</t>
+  </si>
+  <si>
+    <t>Emp_Roll_ID</t>
+  </si>
+  <si>
+    <t>Emp_Roll_Description</t>
   </si>
 </sst>
 </file>
@@ -260,7 +272,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,6 +282,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,11 +304,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -306,6 +326,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -625,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C804E618-E8EA-408E-9DFE-8224DD404835}">
-  <dimension ref="B4:F76"/>
+  <dimension ref="B4:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -655,13 +679,13 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
@@ -885,6 +909,17 @@
         <v>55</v>
       </c>
     </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>14</v>
@@ -918,76 +953,59 @@
         <v>55</v>
       </c>
     </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" t="s">
-        <v>50</v>
-      </c>
-      <c r="F39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" t="s">
-        <v>48</v>
-      </c>
-      <c r="E40" t="s">
-        <v>50</v>
-      </c>
-      <c r="F40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" t="s">
-        <v>45</v>
-      </c>
-      <c r="E41" t="s">
-        <v>50</v>
-      </c>
-      <c r="F41" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="C42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" t="s">
+        <v>47</v>
       </c>
       <c r="E42" t="s">
         <v>50</v>
@@ -998,7 +1016,13 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>48</v>
       </c>
       <c r="E43" t="s">
         <v>50</v>
@@ -1009,140 +1033,154 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" t="s">
+        <v>50</v>
+      </c>
+      <c r="F44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
         <v>21</v>
       </c>
-      <c r="E44" t="s">
-        <v>50</v>
-      </c>
-      <c r="F44" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="2" t="s">
+      <c r="E48" t="s">
+        <v>50</v>
+      </c>
+      <c r="F48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="2" t="s">
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="1" t="s">
+      <c r="D50" s="2"/>
+      <c r="E50" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
         <v>19</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C58" t="s">
         <v>38</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D58" t="s">
         <v>47</v>
       </c>
-      <c r="E54" t="s">
-        <v>50</v>
-      </c>
-      <c r="F54" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>32</v>
-      </c>
-      <c r="E55" t="s">
-        <v>50</v>
-      </c>
-      <c r="F55" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="1" t="s">
-        <v>23</v>
+      <c r="E58" t="s">
+        <v>50</v>
+      </c>
+      <c r="F58" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" t="s">
+        <v>50</v>
+      </c>
+      <c r="F59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
         <v>24</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C63" t="s">
         <v>38</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D63" t="s">
         <v>47</v>
       </c>
-      <c r="E59" t="s">
-        <v>50</v>
-      </c>
-      <c r="F59" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" t="s">
-        <v>48</v>
-      </c>
-      <c r="E60" t="s">
-        <v>50</v>
-      </c>
-      <c r="F60" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" t="s">
-        <v>0</v>
-      </c>
-      <c r="D61" t="s">
-        <v>48</v>
-      </c>
-      <c r="E61" t="s">
-        <v>50</v>
-      </c>
-      <c r="F61" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B63" s="1" t="s">
-        <v>25</v>
+      <c r="E63" t="s">
+        <v>50</v>
+      </c>
+      <c r="F63" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>35</v>
-      </c>
-      <c r="C64" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E64" t="s">
         <v>50</v>
@@ -1153,7 +1191,7 @@
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D65" t="s">
         <v>48</v>
@@ -1165,40 +1203,20 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
-        <v>26</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="E66" t="s">
-        <v>50</v>
-      </c>
-      <c r="F66" t="s">
-        <v>55</v>
-      </c>
-    </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
-        <v>27</v>
-      </c>
-      <c r="C67" t="s">
-        <v>44</v>
-      </c>
-      <c r="E67" t="s">
-        <v>50</v>
-      </c>
-      <c r="F67" t="s">
-        <v>55</v>
+      <c r="B67" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C68" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="D68" t="s">
+        <v>47</v>
       </c>
       <c r="E68" t="s">
         <v>50</v>
@@ -1209,81 +1227,137 @@
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>56</v>
+        <v>18</v>
+      </c>
+      <c r="D69" t="s">
+        <v>48</v>
       </c>
       <c r="E69" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F69" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F70" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="C71" t="s">
+        <v>44</v>
       </c>
       <c r="E71" t="s">
+        <v>50</v>
+      </c>
+      <c r="F71" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" t="s">
+        <v>43</v>
+      </c>
+      <c r="E72" t="s">
+        <v>50</v>
+      </c>
+      <c r="F72" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>56</v>
+      </c>
+      <c r="E73" t="s">
         <v>53</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F73" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B73" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>49</v>
-      </c>
-      <c r="C74" t="s">
-        <v>38</v>
-      </c>
-      <c r="D74" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E74" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F74" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
+        <v>30</v>
+      </c>
+      <c r="E75" t="s">
+        <v>53</v>
+      </c>
+      <c r="F75" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B77" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>49</v>
+      </c>
+      <c r="C78" t="s">
+        <v>38</v>
+      </c>
+      <c r="D78" t="s">
+        <v>47</v>
+      </c>
+      <c r="E78" t="s">
+        <v>50</v>
+      </c>
+      <c r="F78" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
         <v>35</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D79" t="s">
         <v>57</v>
       </c>
-      <c r="E75" t="s">
-        <v>50</v>
-      </c>
-      <c r="F75" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B76" t="s">
+      <c r="E79" t="s">
+        <v>50</v>
+      </c>
+      <c r="F79" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
         <v>34</v>
       </c>
-      <c r="E76" t="s">
-        <v>50</v>
-      </c>
-      <c r="F76" t="s">
+      <c r="E80" t="s">
+        <v>50</v>
+      </c>
+      <c r="F80" t="s">
         <v>55</v>
       </c>
     </row>

--- a/Project Tables.xlsx
+++ b/Project Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/beb650ba858967e9/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="8_{E3710089-0625-4CE7-84EB-D53F9F51348D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9D7F859-8187-488E-88AB-1C2640258EF9}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="8_{E3710089-0625-4CE7-84EB-D53F9F51348D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{396CEF08-1A38-45DD-B105-D3106EBC5D92}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C40A13FC-77CD-4154-8C71-D97320883B10}"/>
+    <workbookView xWindow="1164" yWindow="0" windowWidth="15576" windowHeight="11112" xr2:uid="{C40A13FC-77CD-4154-8C71-D97320883B10}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="72">
   <si>
     <t>Customer_ID</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>Emp_Roll_Description</t>
+  </si>
+  <si>
+    <t>Birthday Celebration</t>
   </si>
 </sst>
 </file>
@@ -651,14 +654,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C804E618-E8EA-408E-9DFE-8224DD404835}">
   <dimension ref="B4:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21.5546875" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
     <col min="4" max="4" width="15.44140625" customWidth="1"/>
     <col min="5" max="5" width="20.6640625" customWidth="1"/>
     <col min="6" max="6" width="21.21875" customWidth="1"/>
@@ -1074,6 +1077,9 @@
       <c r="B47" t="s">
         <v>22</v>
       </c>
+      <c r="C47" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="E47" t="s">
         <v>50</v>
       </c>

--- a/Project Tables.xlsx
+++ b/Project Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/beb650ba858967e9/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="8_{E3710089-0625-4CE7-84EB-D53F9F51348D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{396CEF08-1A38-45DD-B105-D3106EBC5D92}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="8_{E3710089-0625-4CE7-84EB-D53F9F51348D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{399BCA0A-3192-45DC-930A-7E1984FABD86}"/>
   <bookViews>
-    <workbookView xWindow="1164" yWindow="0" windowWidth="15576" windowHeight="11112" xr2:uid="{C40A13FC-77CD-4154-8C71-D97320883B10}"/>
+    <workbookView xWindow="7380" yWindow="72" windowWidth="15576" windowHeight="11112" xr2:uid="{C40A13FC-77CD-4154-8C71-D97320883B10}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -654,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C804E618-E8EA-408E-9DFE-8224DD404835}">
   <dimension ref="B4:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -913,13 +913,15 @@
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>55</v>
       </c>
     </row>

--- a/Project Tables.xlsx
+++ b/Project Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/beb650ba858967e9/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="8_{E3710089-0625-4CE7-84EB-D53F9F51348D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{399BCA0A-3192-45DC-930A-7E1984FABD86}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="8_{E3710089-0625-4CE7-84EB-D53F9F51348D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAEC5DDB-DDD5-45C9-98B0-02DFFEF97845}"/>
   <bookViews>
     <workbookView xWindow="7380" yWindow="72" windowWidth="15576" windowHeight="11112" xr2:uid="{C40A13FC-77CD-4154-8C71-D97320883B10}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="67">
   <si>
     <t>Customer_ID</t>
   </si>
@@ -213,21 +213,6 @@
   </si>
   <si>
     <t>Employee_Password</t>
-  </si>
-  <si>
-    <t>Customer Table</t>
-  </si>
-  <si>
-    <t>Preferred_Status_ID</t>
-  </si>
-  <si>
-    <t>Preferred Status Table</t>
-  </si>
-  <si>
-    <t>Code For Regular</t>
-  </si>
-  <si>
-    <t>Preferred_Description</t>
   </si>
   <si>
     <t>Total_Price</t>
@@ -275,7 +260,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,12 +270,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,8 +291,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C804E618-E8EA-408E-9DFE-8224DD404835}">
   <dimension ref="B4:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:F30"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -682,67 +661,39 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
@@ -914,7 +865,7 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -960,7 +911,7 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -969,7 +920,7 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>38</v>
@@ -986,7 +937,7 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1080,7 +1031,7 @@
         <v>22</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E47" t="s">
         <v>50</v>
@@ -1102,7 +1053,7 @@
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -1115,10 +1066,10 @@
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2" t="s">
